--- a/Feedback_File.xlsx
+++ b/Feedback_File.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,6 +521,26 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Universal Guide Masthead - US (Weekend Heavy-Up), Apps Store Masthead - US</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>First Screen Immersive Roadblock, First Screen Rotational Roadblock, Spotlight Row Roadblock</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>First Screen Immersive Roadblock</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Feedback_File.xlsx
+++ b/Feedback_File.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,126 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>First Screen Masthead - US, Universal Guide Masthead - US</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>First Screen Immersive Roadblock, First Screen Rotational Roadblock, Spotlight Row Roadblock</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>First Screen All Models ('16-'25) Roadblock</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Universal Guide Masthead - US, Apps Store Masthead - US</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>First Screen Immersive Roadblock, First Screen Rotational Roadblock, Spotlight Row Roadblock</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>First Screen Rotational Roadblock, First Screen All Models ('16-'25) Roadblock</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>First Screen Masthead - US, Universal Guide Masthead - US</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Spotlight Row Roadblock, First Screen Immersive Roadblock, First Screen Rotational Roadblock</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>First Screen (2017-2021) Roadblock</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Universal Guide Masthead - US (Weekend Heavy-Up)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>First Screen Immersive Roadblock, First Screen Rotational Roadblock, Spotlight Row Roadblock</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>First Screen Immersive Rotational Roadblock</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Universal Guide Masthead - US</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>First Screen Immersive Roadblock, First Screen Rotational Roadblock, Spotlight Row Roadblock</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>First Screen All Models ('16-'25) Roadblock, First Screen (2017-2021) Roadblock</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>First Screen Masthead - US</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>First Screen Immersive Roadblock, First Screen Rotational Roadblock, First Screen All Models ('16-'25) Roadblock</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>First Screen (2017-2021) Roadblock, First Screen Immersive (22+) Roadblock</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
